--- a/data/trans_dic/P18_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido deprimida en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>60,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,37%</t>
+          <t>57,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>19,81%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>47,03%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>49,61%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>50,59%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>50,19%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>55,5%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>58,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,04; 57,54</t>
+          <t>36,65; 72,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,78; 36,92</t>
+          <t>37,86; 73,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,21; 48,4</t>
+          <t>35,75; 71,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,72; 45,11</t>
+          <t>40,96; 76,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,78; 86,47</t>
+          <t>37,81; 74,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,4; 59,37</t>
+          <t>10,5; 35,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,42; 61,9</t>
+          <t>31,28; 60,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,63; 58,72</t>
+          <t>33,23; 62,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,56; 71,38</t>
+          <t>35,95; 64,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,93; 43,71</t>
+          <t>44,78; 73,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,2; 51,18</t>
+          <t>25,52; 45,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,06; 47,32</t>
+          <t>39,54; 61,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>39,08; 61,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>42,72; 66,13</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>47,03; 69,54</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>65,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>61,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>59,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>47,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>74,61%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>64,23%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>62,78%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>45,74%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 51,1</t>
+          <t>40,24; 83,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,79; 22,22</t>
+          <t>73,88; 94,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 39,68</t>
+          <t>58,27; 87,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 46,71</t>
+          <t>38,48; 84,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,89; 77,3</t>
+          <t>19,69; 70,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,06; 50,92</t>
+          <t>14,35; 35,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,13; 49,1</t>
+          <t>48,56; 76,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,71; 49,2</t>
+          <t>40,17; 67,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,64; 59,14</t>
+          <t>45,39; 71,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,55; 35,18</t>
+          <t>33,34; 61,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,8; 42,05</t>
+          <t>31,87; 57,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,14; 44,29</t>
+          <t>64,02; 83,3</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>54,04; 75,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>46,45; 74,6</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>30,61; 59,49</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>61,53%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,89%</t>
+          <t>54,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,59%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>60,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>61,16%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>59,45%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>58,2%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>62,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 51,91</t>
+          <t>44,41; 71,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 47,58</t>
+          <t>58,9; 82,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,73; 47,25</t>
+          <t>59,97; 82,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,79; 45,72</t>
+          <t>57,02; 81,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,44; 68,5</t>
+          <t>52,18; 76,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,48; 50,8</t>
+          <t>30,21; 48,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,98; 57,16</t>
+          <t>44,4; 63,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,4; 56,9</t>
+          <t>41,74; 61,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,46; 59,56</t>
+          <t>39,86; 59,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 44,05</t>
+          <t>49,97; 69,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,73; 48,67</t>
+          <t>38,18; 54,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,46; 47,46</t>
+          <t>53,45; 68,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>51,87; 67,4</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>50,46; 65,72</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>54,28; 70,57</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>77,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>68,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>55,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>49,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>65,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>57,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>58,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,95; 42,7</t>
+          <t>49,7; 71,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 31,74</t>
+          <t>66,56; 84,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,77; 43,23</t>
+          <t>57,09; 77,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,15; 40,87</t>
+          <t>57,34; 77,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,06; 71,27</t>
+          <t>52,72; 73,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,84; 51,11</t>
+          <t>29,52; 47,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,9; 59,38</t>
+          <t>46,87; 66,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,24; 59,2</t>
+          <t>39,1; 58,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,82; 56,11</t>
+          <t>39,53; 59,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,4; 40,47</t>
+          <t>38,14; 58,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,38; 49,61</t>
+          <t>41,62; 55,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,57; 48,83</t>
+          <t>58,41; 71,97</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>50,0; 64,66</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>50,7; 65,65</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>49,07; 63,62</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>62,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>70,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>64,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>48,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>61,19%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>59,06%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>51,92%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>55,71%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,33; 47,75</t>
+          <t>50,75; 74,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,78; 37,03</t>
+          <t>58,11; 80,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,91; 41,24</t>
+          <t>57,3; 81,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,57; 44,77</t>
+          <t>45,84; 70,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,76; 67,04</t>
+          <t>51,58; 76,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,43; 54,05</t>
+          <t>34,48; 60,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,63; 62,31</t>
+          <t>35,22; 62,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,45; 67,96</t>
+          <t>29,12; 56,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41,0; 54,41</t>
+          <t>29,76; 56,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,58; 42,6</t>
+          <t>32,53; 60,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,88; 48,5</t>
+          <t>47,35; 65,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,18; 53,91</t>
+          <t>52,58; 70,75</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>49,05; 68,05</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>43,07; 61,28</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>45,54; 65,53</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>80,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,07%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>55,77%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>48,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>62,55%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>63,19%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>58,93%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>61,44%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,61; 40,77</t>
+          <t>52,57; 82,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,76; 26,12</t>
+          <t>70,57; 94,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 35,93</t>
+          <t>64,23; 91,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,17; 30,3</t>
+          <t>74,97; 97,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,72; 68,18</t>
+          <t>65,62; 91,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,85; 64,86</t>
+          <t>23,53; 53,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,96; 69,08</t>
+          <t>28,78; 59,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,58; 68,92</t>
+          <t>33,48; 64,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,86; 53,86</t>
+          <t>21,29; 50,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,74; 45,63</t>
+          <t>33,78; 70,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,18; 55,64</t>
+          <t>41,01; 61,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,43; 49,13</t>
+          <t>51,18; 72,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>51,91; 74,04</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>46,79; 69,88</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>49,76; 72,29</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>67,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>61,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>53,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>58,95%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>57,93%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,56; 41,44</t>
+          <t>55,23; 67,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,11; 27,55</t>
+          <t>70,11; 80,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,62; 36,59</t>
+          <t>64,46; 74,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,15; 35,94</t>
+          <t>60,27; 73,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,66; 67,86</t>
+          <t>49,8; 68,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,05; 49,05</t>
+          <t>29,99; 39,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,52; 54,23</t>
+          <t>48,08; 57,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,29; 53,75</t>
+          <t>44,25; 54,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,69; 54,56</t>
+          <t>43,63; 53,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,28; 37,31</t>
+          <t>46,84; 58,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>38,08; 44,42</t>
+          <t>43,44; 51,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,11; 43,66</t>
+          <t>59,44; 67,24</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>55,13; 63,02</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>53,73; 61,98</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>50,6; 60,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>48305</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58916</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56987</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>76983</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>83587</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23290</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63025</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>56340</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61803</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85746</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>71595</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>121941</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>113327</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>138786</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>169333</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31560; 62349</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40524; 78213</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>37794; 75753</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52242; 97902</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>55128; 108244</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12348; 42096</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41914; 80926</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39898; 75546</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>44043; 79585</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>65148; 106443</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51980; 93271</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>95305; 148754</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>88242; 138126</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>106839; 165383</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>136989; 202555</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89131</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>146758</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>105861</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100987</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>101814</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31031</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>102314</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>67626</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75163</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>76603</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>120161</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>249071</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>173488</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>176150</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>178416</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>55056; 113592</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>124674; 160210</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>83553; 125718</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>59366; 129728</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>44834; 161587</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19127; 47715</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>80178; 125787</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>50903; 85165</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57333; 90637</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>54130; 99157</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86082; 155108</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>213736; 278104</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>145958; 204049</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>130342; 209317</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>119412; 232047</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79259</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>116518</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98019</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>97024</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>117371</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>83229</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>144112</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>106333</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>99739</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>144734</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>162488</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>260630</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>204352</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>196763</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>262106</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>62059; 99597</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>95453; 132955</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80576; 110587</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>78477; 112288</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>94048; 138781</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>65079; 105429</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>117248; 168744</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87382; 127720</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>79896; 119579</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>119786; 166860</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>135593; 193014</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>227784; 290570</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>178305; 231668</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>170623; 222203</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>227953; 296373</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>101032</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>144284</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>108716</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>106878</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>127653</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71978</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>122073</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>91369</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>86146</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>105754</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>173011</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>266357</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>200085</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>193024</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>233407</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>81257; 116544</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>124258; 158589</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>92036; 125316</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>89576; 121549</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>105129; 147021</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>56459; 91268</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>102357; 144803</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72705; 109669</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>68166; 103010</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>81146; 124209</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>147656; 198617</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>236578; 291521</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>173560; 224473</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>166626; 215775</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>202234; 262195</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>86286</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>110413</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>93122</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>72764</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>100315</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>50002</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57022</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>40290</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39308</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>62202</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>136288</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>167436</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>133411</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>112072</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>162517</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>70485; 103926</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>91479; 126541</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75675; 107251</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>56468; 86818</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>79773; 118890</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35684; 62855</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>40927; 73075</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27317; 52682</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27581; 52567</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>44587; 83309</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>114774; 159599</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>143861; 193576</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>110804; 153711</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>92982; 132289</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>132837; 191160</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>59343</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>94039</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>70188</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>80191</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>111993</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39489</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>60408</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51436</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>38107</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>102203</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>98832</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>154447</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>121625</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>118298</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>214196</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>45645; 71266</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>77148; 103258</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>56094; 79925</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>67572; 87506</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>90443; 125908</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>24688; 56222</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>39602; 81376</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>35197; 67547</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23546; 56127</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>71221; 148029</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>78636; 118503</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>126370; 179894</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>99914; 142512</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>93936; 140277</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>173474; 252056</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>463356</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>670928</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>532893</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>534827</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>642732</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>299019</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>548953</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>413393</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>400265</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>577242</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>762375</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1219882</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>946287</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>935093</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1219975</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>415264; 508226</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>624872; 718713</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>492526; 572794</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>475530; 578426</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>520722; 714942</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>259676; 338152</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>497791; 598375</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>372154; 459227</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>359938; 440477</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>519124; 643610</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>702777; 832124</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1145170; 1295448</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>884994; 1011585</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>867239; 1000469</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1089733; 1312403</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>